--- a/testes.xlsx
+++ b/testes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="175">
   <si>
     <t>TEXTO</t>
   </si>
@@ -32,9 +32,6 @@
     <t>TEXTO OBTIDO</t>
   </si>
   <si>
-    <t>BINARIZAÇÃO</t>
-  </si>
-  <si>
     <t>QTD</t>
   </si>
   <si>
@@ -56,18 +53,9 @@
     <t>YESTERDAY</t>
   </si>
   <si>
-    <t>FILTRO LUMIN</t>
-  </si>
-  <si>
-    <t>FILTRO CONTR</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>OTSU</t>
-  </si>
-  <si>
     <t>Blackbird</t>
   </si>
   <si>
@@ -77,21 +65,6 @@
     <t>Insert: 0, Delete: 0, Substitute: 1</t>
   </si>
   <si>
-    <t>Insert: 0, Delete: 0, Substitute: 2</t>
-  </si>
-  <si>
-    <t>Insert: 0, Delete: 0, Substitute: 3</t>
-  </si>
-  <si>
-    <t>Insert: 0, Delete: 0, Substitute: 4</t>
-  </si>
-  <si>
-    <t>Insert: 0, Delete: 0, Substitute: 5</t>
-  </si>
-  <si>
-    <t>Insert: 0, Delete: 0, Substitute: 6</t>
-  </si>
-  <si>
     <t>COME TOGETHER</t>
   </si>
   <si>
@@ -122,21 +95,9 @@
     <t>Yesterday all my troubles seemed so far away</t>
   </si>
   <si>
-    <t>&gt;5</t>
-  </si>
-  <si>
     <t>Yesterday all my troubles seemed so far away. Now it looks as thought they’re here to stay. Oh, I believe in yesterday</t>
   </si>
   <si>
-    <t>Vesterflay na my (roubles seemed so Var away Now K ‘ooks as throught they’re have ID slay Oh, Oh, I believe iii yesterday</t>
-  </si>
-  <si>
-    <t>Insert: 6, Delete: 3, Substitute: 15</t>
-  </si>
-  <si>
-    <t>&gt; 4</t>
-  </si>
-  <si>
     <t>SUMMER</t>
   </si>
   <si>
@@ -158,15 +119,9 @@
     <t>WINTER IS COMING</t>
   </si>
   <si>
-    <t>WINTER ws COMING</t>
-  </si>
-  <si>
     <t>KING OF THE NORTH</t>
   </si>
   <si>
-    <t>KING OF THE NORTH _</t>
-  </si>
-  <si>
     <t>Insert: 1, Delete: 0, Substitute: 0</t>
   </si>
   <si>
@@ -176,9 +131,6 @@
     <t>You Know Nothing, Jon Snow</t>
   </si>
   <si>
-    <t>You know nolhing, Jon Snow</t>
-  </si>
-  <si>
     <t>Insert: 1, Delete: 0, Substitute: 1</t>
   </si>
   <si>
@@ -188,12 +140,6 @@
     <t>I am Daenerys Stormborn of House Targaryen, the Unburnt, Mother of Dragons, khaleesi to Drogo's riders, and queen of the Seven Kingdoms of Westeros.</t>
   </si>
   <si>
-    <t>m Uaevemi, 'w"' Hmsrbmy" ' w. ' ' Mmenmwm U hmjcfiuuu m M, m SW&gt;&gt; ngzzw~a" 5,3</t>
-  </si>
-  <si>
-    <t>Insert: 0, Delete: 70, Substitute: 48</t>
-  </si>
-  <si>
     <t>JEDI</t>
   </si>
   <si>
@@ -206,9 +152,6 @@
     <t>STAR WARS</t>
   </si>
   <si>
-    <t>_ STAR a WARS</t>
-  </si>
-  <si>
     <t>Insert: 4, Delete: 0, Substitute: 0</t>
   </si>
   <si>
@@ -218,9 +161,6 @@
     <t>UNLIMITED POWER</t>
   </si>
   <si>
-    <t>UNUMITED POWER</t>
-  </si>
-  <si>
     <t>Insert: 0, Delete: 1, Substitute: 1</t>
   </si>
   <si>
@@ -239,9 +179,6 @@
     <t>A long time ago in a galaxy far far away...</t>
   </si>
   <si>
-    <t>A long tlme ago in a galaxy far far away...</t>
-  </si>
-  <si>
     <t>LEVEHNSTEIN PURE</t>
   </si>
   <si>
@@ -348,6 +285,270 @@
   </si>
   <si>
     <t>Insert: 4, Delete: 3, Substitute: 2</t>
+  </si>
+  <si>
+    <t>Insert: 0, Delete: 52, Substitute: 12</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>YOSHI</t>
+  </si>
+  <si>
+    <t>GAME OVER</t>
+  </si>
+  <si>
+    <t>MAMMA MIA</t>
+  </si>
+  <si>
+    <t>D&amp;D</t>
+  </si>
+  <si>
+    <t>Venger</t>
+  </si>
+  <si>
+    <t>Dungeon Master</t>
+  </si>
+  <si>
+    <t>Uni the Unicorn</t>
+  </si>
+  <si>
+    <t>Uni The Unicorn</t>
+  </si>
+  <si>
+    <t>Bobby the Barbarian</t>
+  </si>
+  <si>
+    <t>Sheila the Thief</t>
+  </si>
+  <si>
+    <t>Presto the Magician</t>
+  </si>
+  <si>
+    <t>Diana the Acrobat</t>
+  </si>
+  <si>
+    <t>Eric the Cavalier</t>
+  </si>
+  <si>
+    <t>Hank the Ranger</t>
+  </si>
+  <si>
+    <t>Dungeons and Dragons</t>
+  </si>
+  <si>
+    <t>STAY</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>Insert: 0, Delete: 10, Substitute: 0</t>
+  </si>
+  <si>
+    <t>David Gilmour</t>
+  </si>
+  <si>
+    <t>Syd Barrett</t>
+  </si>
+  <si>
+    <t>PINK FLOYD</t>
+  </si>
+  <si>
+    <t>Roger Waters</t>
+  </si>
+  <si>
+    <t>THE WALL</t>
+  </si>
+  <si>
+    <t>Dark side of the moon</t>
+  </si>
+  <si>
+    <t>Shine on you crazy diamond</t>
+  </si>
+  <si>
+    <t>The Great Gig in the Sky</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>HAGEN</t>
+  </si>
+  <si>
+    <t>THE GODFATHER</t>
+  </si>
+  <si>
+    <t>Insert: 0, Delete: 13, Substitute: 0</t>
+  </si>
+  <si>
+    <t>Johnny Fontane</t>
+  </si>
+  <si>
+    <t>DON CORLEONE</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>INSECURITIES ARE LOUD</t>
+  </si>
+  <si>
+    <t>CONFIDENCE IS SILENT</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>BLUE PILL</t>
+  </si>
+  <si>
+    <t>RED PILL</t>
+  </si>
+  <si>
+    <t>The Oracle</t>
+  </si>
+  <si>
+    <t>Free your mind</t>
+  </si>
+  <si>
+    <t>Ignorance is bliss</t>
+  </si>
+  <si>
+    <t>What is real ?</t>
+  </si>
+  <si>
+    <t>There is no spoon</t>
+  </si>
+  <si>
+    <t>Follow the white rabbit</t>
+  </si>
+  <si>
+    <t>A déjà vu is usually a glitch in the Matrix.</t>
+  </si>
+  <si>
+    <t>Hobbit</t>
+  </si>
+  <si>
+    <t>ORCS</t>
+  </si>
+  <si>
+    <t>The Ring</t>
+  </si>
+  <si>
+    <t>My Precious</t>
+  </si>
+  <si>
+    <t>ONE RING</t>
+  </si>
+  <si>
+    <t>The Two Towers</t>
+  </si>
+  <si>
+    <t>THE MIDDLE EARTH</t>
+  </si>
+  <si>
+    <t>YOU SHALL NOT PASS</t>
+  </si>
+  <si>
+    <t>One Ring to rule them all</t>
+  </si>
+  <si>
+    <t>IT'S ME, MARIO</t>
+  </si>
+  <si>
+    <t>SUPER MARIO WORLD</t>
+  </si>
+  <si>
+    <t>PUSH START BUTTON</t>
+  </si>
+  <si>
+    <t>HERE WE GO</t>
+  </si>
+  <si>
+    <t>THANK YOU, MARIO! BUT OUR PRINCESS IS IN ANOTHER CASTLE</t>
+  </si>
+  <si>
+    <t>Insert: 0, Delete: 55, Substitute: 0</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>TIMON</t>
+  </si>
+  <si>
+    <t>PUMBAA</t>
+  </si>
+  <si>
+    <t>HAKUNA MATATA</t>
+  </si>
+  <si>
+    <t>THE LION KING</t>
+  </si>
+  <si>
+    <t>Long live the king</t>
+  </si>
+  <si>
+    <t>THE PAST CAN HURT</t>
+  </si>
+  <si>
+    <t>Remember who you are</t>
+  </si>
+  <si>
+    <t>I'm Surrounded by idiots</t>
+  </si>
+  <si>
+    <t>Yesterday all my troubles seemed so far away. Now it looks as thought. they’re here to stay. Oh, I believe in yesterday</t>
+  </si>
+  <si>
+    <t>Insert: 3, Delete: 3, Substitute: 12</t>
+  </si>
+  <si>
+    <t>I am Daen erys Stormbom of House Ta rgaryen. tho U'tbuml, Mathew of Dragons, khalees. to Drogo's riders, and queen of he Seven Kingdmns of Westerns.</t>
+  </si>
+  <si>
+    <t>STAR E WARS</t>
+  </si>
+  <si>
+    <t>Sheila the Twef</t>
+  </si>
+  <si>
+    <t>Presto the Magman</t>
+  </si>
+  <si>
+    <t>Insert: 0, Delete: 2, Substitute: 1</t>
+  </si>
+  <si>
+    <t>The Great Glg in the Sky</t>
+  </si>
+  <si>
+    <t>Johnny Fontane A</t>
+  </si>
+  <si>
+    <t>Ignorance is biis</t>
+  </si>
+  <si>
+    <t>Insert: 0, Delete: 2, Substitute: 5</t>
+  </si>
+  <si>
+    <t>A an; vu l5 usually a glitch in the Matrix</t>
+  </si>
+  <si>
+    <t>One Ring to rule them am</t>
+  </si>
+  <si>
+    <t>WHOM KING</t>
+  </si>
+  <si>
+    <t>Long iive the king</t>
   </si>
 </sst>
 </file>
@@ -704,40 +905,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q36"/>
+  <dimension ref="A3:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="H92" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
@@ -745,1223 +943,2966 @@
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3"/>
+        <v>6</v>
+      </c>
       <c r="L3" s="3" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9">
         <v>3</v>
       </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11">
-        <v>7</v>
-      </c>
-      <c r="P11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>160</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20">
-        <v>7</v>
-      </c>
-      <c r="P20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="N20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21">
-        <v>15</v>
-      </c>
-      <c r="P21" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="N21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22">
-        <v>6</v>
-      </c>
-      <c r="P22" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="N22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>12</v>
+        <v>162</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="L24">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24">
-        <v>82</v>
-      </c>
-      <c r="P24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="N24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>15</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
-      <c r="P29" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="N29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="N30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M31" t="s">
-        <v>65</v>
-      </c>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="P31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="N31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" t="s">
-        <v>15</v>
-      </c>
-      <c r="O32">
-        <v>3</v>
-      </c>
-      <c r="P32" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="N32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="s">
-        <v>15</v>
-      </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
-      <c r="P33" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" t="s">
-        <v>15</v>
-      </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
-      <c r="P34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="N34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="N35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="M36" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="N44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45" t="s">
+        <v>166</v>
+      </c>
+      <c r="N45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>11</v>
+      </c>
+      <c r="N46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>107</v>
+      </c>
+      <c r="L53">
+        <v>10</v>
+      </c>
+      <c r="M53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" t="s">
+        <v>110</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>11</v>
+      </c>
+      <c r="N57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>11</v>
+      </c>
+      <c r="N58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>11</v>
+      </c>
+      <c r="N59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>11</v>
+      </c>
+      <c r="N60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
         <v>12</v>
       </c>
-      <c r="J36" t="s">
+      <c r="N61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>11</v>
+      </c>
+      <c r="N63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>117</v>
+      </c>
+      <c r="G64" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>118</v>
+      </c>
+      <c r="I65">
         <v>13</v>
       </c>
-      <c r="L36">
+      <c r="J65" t="s">
+        <v>119</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" t="s">
+        <v>120</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66">
         <v>1</v>
       </c>
-      <c r="M36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O36">
+      <c r="M66" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>11</v>
+      </c>
+      <c r="N67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>11</v>
+      </c>
+      <c r="N68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>11</v>
+      </c>
+      <c r="N69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>11</v>
+      </c>
+      <c r="N70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" t="s">
+        <v>125</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>11</v>
+      </c>
+      <c r="N72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>11</v>
+      </c>
+      <c r="N73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74" t="s">
+        <v>127</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>11</v>
+      </c>
+      <c r="N74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" t="s">
+        <v>128</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>11</v>
+      </c>
+      <c r="N75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>11</v>
+      </c>
+      <c r="N76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>11</v>
+      </c>
+      <c r="N77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" t="s">
+        <v>131</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>11</v>
+      </c>
+      <c r="N79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" t="s">
+        <v>133</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>11</v>
+      </c>
+      <c r="N80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" t="s">
+        <v>134</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>11</v>
+      </c>
+      <c r="N81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" t="s">
+        <v>135</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82" t="s">
+        <v>170</v>
+      </c>
+      <c r="N82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>11</v>
+      </c>
+      <c r="N84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85" t="s">
+        <v>137</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>11</v>
+      </c>
+      <c r="N85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" t="s">
+        <v>138</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>11</v>
+      </c>
+      <c r="N86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G87" t="s">
+        <v>139</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>11</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>11</v>
+      </c>
+      <c r="N87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
         <v>9</v>
       </c>
-      <c r="P36" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>106</v>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>140</v>
+      </c>
+      <c r="G88" t="s">
+        <v>140</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>11</v>
+      </c>
+      <c r="N88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>141</v>
+      </c>
+      <c r="G89" t="s">
+        <v>141</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>11</v>
+      </c>
+      <c r="N89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>142</v>
+      </c>
+      <c r="G90" t="s">
+        <v>142</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>11</v>
+      </c>
+      <c r="N90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>143</v>
+      </c>
+      <c r="G91" t="s">
+        <v>143</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>144</v>
+      </c>
+      <c r="G92" t="s">
+        <v>144</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92" t="s">
+        <v>45</v>
+      </c>
+      <c r="N92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>89</v>
+      </c>
+      <c r="G94" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>11</v>
+      </c>
+      <c r="N94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" t="s">
+        <v>88</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>11</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>11</v>
+      </c>
+      <c r="N95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" t="s">
+        <v>90</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>11</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>91</v>
+      </c>
+      <c r="G97" t="s">
+        <v>91</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>11</v>
+      </c>
+      <c r="N97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>145</v>
+      </c>
+      <c r="G98" t="s">
+        <v>145</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>11</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>146</v>
+      </c>
+      <c r="G99" t="s">
+        <v>146</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>11</v>
+      </c>
+      <c r="N99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
+        <v>147</v>
+      </c>
+      <c r="G100" t="s">
+        <v>147</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>11</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>148</v>
+      </c>
+      <c r="G101" t="s">
+        <v>148</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>11</v>
+      </c>
+      <c r="N101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>149</v>
+      </c>
+      <c r="I102">
+        <v>55</v>
+      </c>
+      <c r="J102" t="s">
+        <v>150</v>
+      </c>
+      <c r="L102">
+        <v>55</v>
+      </c>
+      <c r="M102" t="s">
+        <v>150</v>
+      </c>
+      <c r="N102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>151</v>
+      </c>
+      <c r="G104" t="s">
+        <v>151</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>11</v>
+      </c>
+      <c r="N104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" t="s">
+        <v>152</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>11</v>
+      </c>
+      <c r="N105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>153</v>
+      </c>
+      <c r="G106" t="s">
+        <v>153</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>11</v>
+      </c>
+      <c r="N106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>154</v>
+      </c>
+      <c r="G107" t="s">
+        <v>154</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>11</v>
+      </c>
+      <c r="N107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>155</v>
+      </c>
+      <c r="G108" t="s">
+        <v>155</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>11</v>
+      </c>
+      <c r="N108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>155</v>
+      </c>
+      <c r="G109" t="s">
+        <v>155</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>11</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109" t="s">
+        <v>19</v>
+      </c>
+      <c r="N109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>156</v>
+      </c>
+      <c r="G110" t="s">
+        <v>156</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
+        <v>12</v>
+      </c>
+      <c r="N110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" t="s">
+        <v>157</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>11</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>11</v>
+      </c>
+      <c r="N111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>158</v>
+      </c>
+      <c r="G112" t="s">
+        <v>158</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>11</v>
+      </c>
+      <c r="N112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>159</v>
+      </c>
+      <c r="G113" t="s">
+        <v>159</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>11</v>
+      </c>
+      <c r="N113" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/testes.xlsx
+++ b/testes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="176">
   <si>
     <t>TEXTO</t>
   </si>
@@ -44,9 +44,6 @@
     <t>LEVEHNSTEIN</t>
   </si>
   <si>
-    <t>ALVES</t>
-  </si>
-  <si>
     <t>PAPEL</t>
   </si>
   <si>
@@ -179,12 +176,6 @@
     <t>A long time ago in a galaxy far far away...</t>
   </si>
   <si>
-    <t>LEVEHNSTEIN PURE</t>
-  </si>
-  <si>
-    <t>ALVES PURE</t>
-  </si>
-  <si>
     <t>Insert: 0, Delete: 3, Substitute: 0</t>
   </si>
   <si>
@@ -549,6 +540,18 @@
   </si>
   <si>
     <t>Long iive the king</t>
+  </si>
+  <si>
+    <t>LEVENSHTEIN DET.</t>
+  </si>
+  <si>
+    <t>ALVES CHAR</t>
+  </si>
+  <si>
+    <t>ALVES PALa.</t>
+  </si>
+  <si>
+    <t>case sensitive ?</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,6 +585,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD6EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -625,6 +634,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N113"/>
+  <dimension ref="A3:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H92" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="E94" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,13 +928,15 @@
     <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -932,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -948,2961 +960,4176 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
       <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9">
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9">
+        <v>70</v>
+      </c>
+      <c r="P9">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" t="s">
         <v>53</v>
       </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10">
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>76.47</v>
+      </c>
+      <c r="P10">
+        <v>76.47</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12">
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12">
         <v>4</v>
       </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>92.3</v>
+      </c>
+      <c r="P12">
+        <v>89.74</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13">
+      <c r="J13">
+        <v>99</v>
+      </c>
+      <c r="K13">
+        <v>99</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13">
         <v>64</v>
       </c>
-      <c r="M13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>39.6</v>
+      </c>
+      <c r="P13">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>80</v>
+      </c>
+      <c r="P16">
+        <v>80</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
         <v>27</v>
       </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18">
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>90.9</v>
+      </c>
+      <c r="P18">
+        <v>90.9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20">
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20">
         <v>7</v>
       </c>
-      <c r="M20" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>58.82</v>
+      </c>
+      <c r="P20">
+        <v>58.82</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21">
         <v>15</v>
       </c>
-      <c r="M21" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>57.14</v>
+      </c>
+      <c r="P22">
+        <v>57.14</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I24">
         <v>18</v>
       </c>
-      <c r="J24" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24">
+      <c r="J24">
+        <v>87.2</v>
+      </c>
+      <c r="K24">
+        <v>85.6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24">
         <v>82</v>
       </c>
-      <c r="M24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>34.4</v>
+      </c>
+      <c r="P24">
+        <v>34.4</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>100</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
-      <c r="J29" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29">
+      <c r="J29">
+        <v>87.5</v>
+      </c>
+      <c r="K29">
+        <v>87.5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29">
         <v>2</v>
       </c>
-      <c r="M29" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>75</v>
+      </c>
+      <c r="P29">
+        <v>75</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>69</v>
+      </c>
+      <c r="R29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30">
+      <c r="J30">
+        <v>75</v>
+      </c>
+      <c r="K30">
+        <v>75</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30">
         <v>3</v>
       </c>
-      <c r="M30" t="s">
-        <v>74</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="O30">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>62.5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>71</v>
+      </c>
+      <c r="R30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31">
-        <v>6</v>
-      </c>
-      <c r="M31" t="s">
-        <v>77</v>
-      </c>
-      <c r="N31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31">
+        <v>64.28</v>
+      </c>
+      <c r="P31">
+        <v>57.14</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32">
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32">
         <v>3</v>
       </c>
-      <c r="M32" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>77.77</v>
+      </c>
+      <c r="P32">
+        <v>66.66</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>76</v>
+      </c>
+      <c r="R32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33">
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33">
         <v>2</v>
       </c>
-      <c r="M33" t="s">
-        <v>81</v>
-      </c>
-      <c r="N33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>86.66</v>
+      </c>
+      <c r="P33">
+        <v>86.66</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>78</v>
+      </c>
+      <c r="R33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34">
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34">
         <v>2</v>
       </c>
-      <c r="M34" t="s">
-        <v>81</v>
-      </c>
-      <c r="N34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>84.61</v>
+      </c>
+      <c r="P34">
+        <v>84.61</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>78</v>
+      </c>
+      <c r="R34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>95</v>
+      </c>
+      <c r="P35">
+        <v>95</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>80</v>
+      </c>
+      <c r="R35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
         <v>49</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>49</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <v>82.35</v>
+      </c>
+      <c r="P36">
+        <v>73.52</v>
+      </c>
+      <c r="Q36" t="s">
         <v>83</v>
       </c>
-      <c r="N35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36">
-        <v>9</v>
-      </c>
-      <c r="M36" t="s">
-        <v>86</v>
-      </c>
-      <c r="N36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+      <c r="P39">
+        <v>100</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>11</v>
-      </c>
-      <c r="N40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>100</v>
+      </c>
+      <c r="P40">
+        <v>100</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>10</v>
+      </c>
+      <c r="R40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+      <c r="P41">
+        <v>100</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>11</v>
-      </c>
-      <c r="N42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>100</v>
+      </c>
+      <c r="P42">
+        <v>100</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>11</v>
-      </c>
-      <c r="N43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="L43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>100</v>
+      </c>
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>92.85</v>
+      </c>
+      <c r="P44">
+        <v>85.71</v>
+      </c>
+      <c r="Q44" t="s">
         <v>11</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s">
-        <v>12</v>
-      </c>
-      <c r="N44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45">
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45">
         <v>3</v>
       </c>
-      <c r="M45" t="s">
-        <v>166</v>
-      </c>
-      <c r="N45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>88.23</v>
+      </c>
+      <c r="P45">
+        <v>82.35</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>163</v>
+      </c>
+      <c r="R45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>11</v>
-      </c>
-      <c r="N46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>100</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>100</v>
+      </c>
+      <c r="P49">
+        <v>100</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
-        <v>11</v>
-      </c>
-      <c r="N51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+      <c r="L51" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>100</v>
+      </c>
+      <c r="P51">
+        <v>100</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>10</v>
+      </c>
+      <c r="R51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>11</v>
-      </c>
-      <c r="N52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+      <c r="L52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>100</v>
+      </c>
+      <c r="P52">
+        <v>100</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I53">
         <v>10</v>
       </c>
-      <c r="J53" t="s">
-        <v>107</v>
-      </c>
-      <c r="L53">
-        <v>10</v>
-      </c>
-      <c r="M53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>104</v>
+      </c>
+      <c r="N53">
+        <v>10</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
-        <v>11</v>
-      </c>
-      <c r="N54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>100</v>
+      </c>
+      <c r="P54">
+        <v>100</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>10</v>
+      </c>
+      <c r="R54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="s">
-        <v>11</v>
-      </c>
-      <c r="N55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55">
+        <v>100</v>
+      </c>
+      <c r="L55" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>100</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>10</v>
+      </c>
+      <c r="R55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>11</v>
-      </c>
-      <c r="N56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>100</v>
+      </c>
+      <c r="L56" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>100</v>
+      </c>
+      <c r="P56">
+        <v>100</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>10</v>
+      </c>
+      <c r="R56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>11</v>
-      </c>
-      <c r="N57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>100</v>
+      </c>
+      <c r="L57" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>100</v>
+      </c>
+      <c r="P57">
+        <v>100</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
-        <v>11</v>
-      </c>
-      <c r="N58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <v>100</v>
+      </c>
+      <c r="L58" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>100</v>
+      </c>
+      <c r="P58">
+        <v>100</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>10</v>
+      </c>
+      <c r="R58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" t="s">
-        <v>11</v>
-      </c>
-      <c r="N59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+      <c r="L59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>100</v>
+      </c>
+      <c r="P59">
+        <v>100</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>10</v>
+      </c>
+      <c r="R59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>100</v>
+      </c>
+      <c r="L60" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>100</v>
+      </c>
+      <c r="P60">
+        <v>100</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>10</v>
+      </c>
+      <c r="R60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61">
+        <v>100</v>
+      </c>
+      <c r="L61" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q61" t="s">
         <v>11</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" t="s">
-        <v>11</v>
-      </c>
-      <c r="N60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>115</v>
-      </c>
-      <c r="G61" t="s">
-        <v>115</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63" t="s">
-        <v>11</v>
-      </c>
-      <c r="N63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63">
+        <v>100</v>
+      </c>
+      <c r="L63" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>100</v>
+      </c>
+      <c r="P63">
+        <v>100</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>10</v>
+      </c>
+      <c r="R63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>11</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" t="s">
-        <v>11</v>
-      </c>
-      <c r="N64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64">
+        <v>100</v>
+      </c>
+      <c r="L64" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>100</v>
+      </c>
+      <c r="P64">
+        <v>100</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>10</v>
+      </c>
+      <c r="R64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I65">
         <v>13</v>
       </c>
-      <c r="J65" t="s">
-        <v>119</v>
-      </c>
-      <c r="L65">
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>116</v>
+      </c>
+      <c r="N65">
         <v>13</v>
       </c>
-      <c r="M65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66">
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66">
+        <v>100</v>
+      </c>
+      <c r="L66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66">
         <v>1</v>
       </c>
-      <c r="M66" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>92.3</v>
+      </c>
+      <c r="P66">
+        <v>92.3</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" t="s">
-        <v>11</v>
-      </c>
-      <c r="N67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>100</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>100</v>
+      </c>
+      <c r="P67">
+        <v>100</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>10</v>
+      </c>
+      <c r="R67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
-        <v>11</v>
-      </c>
-      <c r="N68" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68">
+        <v>100</v>
+      </c>
+      <c r="L68" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>100</v>
+      </c>
+      <c r="P68">
+        <v>100</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>10</v>
+      </c>
+      <c r="R68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>11</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69" t="s">
-        <v>11</v>
-      </c>
-      <c r="N69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>100</v>
+      </c>
+      <c r="K69">
+        <v>100</v>
+      </c>
+      <c r="L69" t="s">
+        <v>10</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>100</v>
+      </c>
+      <c r="P69">
+        <v>100</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>10</v>
+      </c>
+      <c r="R69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G70" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>11</v>
-      </c>
-      <c r="N70" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70">
+        <v>100</v>
+      </c>
+      <c r="L70" t="s">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>100</v>
+      </c>
+      <c r="P70">
+        <v>100</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>10</v>
+      </c>
+      <c r="R70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>11</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72" t="s">
-        <v>11</v>
-      </c>
-      <c r="N72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>100</v>
+      </c>
+      <c r="K72">
+        <v>100</v>
+      </c>
+      <c r="L72" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>100</v>
+      </c>
+      <c r="P72">
+        <v>100</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
-        <v>11</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73" t="s">
-        <v>11</v>
-      </c>
-      <c r="N73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>100</v>
+      </c>
+      <c r="K73">
+        <v>100</v>
+      </c>
+      <c r="L73" t="s">
+        <v>10</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>100</v>
+      </c>
+      <c r="P73">
+        <v>100</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>10</v>
+      </c>
+      <c r="R73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G74" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" t="s">
-        <v>11</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" t="s">
-        <v>11</v>
-      </c>
-      <c r="N74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>100</v>
+      </c>
+      <c r="K74">
+        <v>100</v>
+      </c>
+      <c r="L74" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>100</v>
+      </c>
+      <c r="P74">
+        <v>100</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>10</v>
+      </c>
+      <c r="R74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" t="s">
-        <v>11</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75" t="s">
-        <v>11</v>
-      </c>
-      <c r="N75" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>100</v>
+      </c>
+      <c r="K75">
+        <v>100</v>
+      </c>
+      <c r="L75" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>100</v>
+      </c>
+      <c r="P75">
+        <v>100</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>10</v>
+      </c>
+      <c r="R75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G76" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" t="s">
-        <v>11</v>
-      </c>
-      <c r="N76" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76">
+        <v>100</v>
+      </c>
+      <c r="L76" t="s">
+        <v>10</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>100</v>
+      </c>
+      <c r="P76">
+        <v>100</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" t="s">
-        <v>11</v>
-      </c>
-      <c r="N77" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77">
+        <v>100</v>
+      </c>
+      <c r="L77" t="s">
+        <v>10</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>100</v>
+      </c>
+      <c r="P77">
+        <v>100</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78">
+        <v>100</v>
+      </c>
+      <c r="L78" t="s">
+        <v>10</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>93.33</v>
+      </c>
+      <c r="P78">
+        <v>93.33</v>
+      </c>
+      <c r="Q78" t="s">
         <v>11</v>
       </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78" t="s">
-        <v>12</v>
-      </c>
-      <c r="N78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G79" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" t="s">
-        <v>11</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" t="s">
-        <v>11</v>
-      </c>
-      <c r="N79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>100</v>
+      </c>
+      <c r="K79">
+        <v>100</v>
+      </c>
+      <c r="L79" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>100</v>
+      </c>
+      <c r="P79">
+        <v>100</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80" t="s">
-        <v>11</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" t="s">
-        <v>11</v>
-      </c>
-      <c r="N80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80" t="s">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>100</v>
+      </c>
+      <c r="P80">
+        <v>100</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>4</v>
       </c>
       <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" t="s">
+        <v>131</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+      <c r="K81">
+        <v>100</v>
+      </c>
+      <c r="L81" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>100</v>
+      </c>
+      <c r="P81">
+        <v>100</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>10</v>
+      </c>
+      <c r="R81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" t="s">
+        <v>132</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>100</v>
+      </c>
+      <c r="K82">
+        <v>100</v>
+      </c>
+      <c r="L82" t="s">
+        <v>10</v>
+      </c>
+      <c r="N82">
         <v>7</v>
       </c>
-      <c r="F81" t="s">
-        <v>134</v>
-      </c>
-      <c r="G81" t="s">
-        <v>134</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="s">
-        <v>11</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81" t="s">
-        <v>11</v>
-      </c>
-      <c r="N81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>135</v>
-      </c>
-      <c r="G82" t="s">
-        <v>135</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>11</v>
-      </c>
-      <c r="L82">
-        <v>7</v>
-      </c>
-      <c r="M82" t="s">
-        <v>170</v>
-      </c>
-      <c r="N82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>81.08</v>
+      </c>
+      <c r="P82">
+        <v>81.08</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>167</v>
+      </c>
+      <c r="R82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>11</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84" t="s">
-        <v>11</v>
-      </c>
-      <c r="N84" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>100</v>
+      </c>
+      <c r="K84">
+        <v>100</v>
+      </c>
+      <c r="L84" t="s">
+        <v>10</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>100</v>
+      </c>
+      <c r="P84">
+        <v>100</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" t="s">
-        <v>11</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85" t="s">
-        <v>11</v>
-      </c>
-      <c r="N85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>100</v>
+      </c>
+      <c r="K85">
+        <v>100</v>
+      </c>
+      <c r="L85" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>100</v>
+      </c>
+      <c r="P85">
+        <v>100</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>10</v>
+      </c>
+      <c r="R85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" t="s">
-        <v>11</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
-        <v>11</v>
-      </c>
-      <c r="N86" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>100</v>
+      </c>
+      <c r="K86">
+        <v>100</v>
+      </c>
+      <c r="L86" t="s">
+        <v>10</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>100</v>
+      </c>
+      <c r="P86">
+        <v>100</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>10</v>
+      </c>
+      <c r="R86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" t="s">
-        <v>11</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87" t="s">
-        <v>11</v>
-      </c>
-      <c r="N87" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>100</v>
+      </c>
+      <c r="K87">
+        <v>100</v>
+      </c>
+      <c r="L87" t="s">
+        <v>10</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>100</v>
+      </c>
+      <c r="P87">
+        <v>100</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>10</v>
+      </c>
+      <c r="R87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" t="s">
-        <v>11</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>11</v>
-      </c>
-      <c r="N88" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>100</v>
+      </c>
+      <c r="K88">
+        <v>100</v>
+      </c>
+      <c r="L88" t="s">
+        <v>10</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>100</v>
+      </c>
+      <c r="P88">
+        <v>100</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>10</v>
+      </c>
+      <c r="R88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89" t="s">
-        <v>11</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
-        <v>11</v>
-      </c>
-      <c r="N89" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>100</v>
+      </c>
+      <c r="K89">
+        <v>100</v>
+      </c>
+      <c r="L89" t="s">
+        <v>10</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>100</v>
+      </c>
+      <c r="P89">
+        <v>100</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G90" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90" t="s">
-        <v>11</v>
-      </c>
-      <c r="N90" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>100</v>
+      </c>
+      <c r="K90">
+        <v>100</v>
+      </c>
+      <c r="L90" t="s">
+        <v>10</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>100</v>
+      </c>
+      <c r="P90">
+        <v>100</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>10</v>
+      </c>
+      <c r="R90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G91" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91" t="s">
-        <v>11</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91" t="s">
-        <v>11</v>
-      </c>
-      <c r="N91" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>100</v>
+      </c>
+      <c r="K91">
+        <v>100</v>
+      </c>
+      <c r="L91" t="s">
+        <v>10</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>100</v>
+      </c>
+      <c r="P91">
+        <v>100</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92" t="s">
-        <v>11</v>
-      </c>
-      <c r="L92">
+      <c r="J92">
+        <v>100</v>
+      </c>
+      <c r="K92">
+        <v>100</v>
+      </c>
+      <c r="L92" t="s">
+        <v>10</v>
+      </c>
+      <c r="N92">
         <v>2</v>
       </c>
-      <c r="M92" t="s">
-        <v>45</v>
-      </c>
-      <c r="N92" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>95</v>
+      </c>
+      <c r="P92">
+        <v>90</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>44</v>
+      </c>
+      <c r="R92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94" t="s">
-        <v>11</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94" t="s">
-        <v>11</v>
-      </c>
-      <c r="N94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>100</v>
+      </c>
+      <c r="K94">
+        <v>100</v>
+      </c>
+      <c r="L94" t="s">
+        <v>10</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>100</v>
+      </c>
+      <c r="P94">
+        <v>100</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>10</v>
+      </c>
+      <c r="R94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95" t="s">
-        <v>11</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95" t="s">
-        <v>11</v>
-      </c>
-      <c r="N95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>100</v>
+      </c>
+      <c r="K95">
+        <v>100</v>
+      </c>
+      <c r="L95" t="s">
+        <v>10</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>100</v>
+      </c>
+      <c r="P95">
+        <v>100</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>10</v>
+      </c>
+      <c r="R95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96" t="s">
-        <v>11</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96" t="s">
-        <v>11</v>
-      </c>
-      <c r="N96" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>100</v>
+      </c>
+      <c r="K96">
+        <v>100</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>100</v>
+      </c>
+      <c r="P96">
+        <v>100</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>10</v>
+      </c>
+      <c r="R96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97" t="s">
-        <v>11</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97" t="s">
-        <v>11</v>
-      </c>
-      <c r="N97" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>100</v>
+      </c>
+      <c r="K97">
+        <v>100</v>
+      </c>
+      <c r="L97" t="s">
+        <v>10</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>100</v>
+      </c>
+      <c r="P97">
+        <v>100</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" t="s">
-        <v>11</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98" t="s">
-        <v>11</v>
-      </c>
-      <c r="N98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>100</v>
+      </c>
+      <c r="K98">
+        <v>100</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>100</v>
+      </c>
+      <c r="P98">
+        <v>100</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>10</v>
+      </c>
+      <c r="R98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
-        <v>11</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99" t="s">
-        <v>11</v>
-      </c>
-      <c r="N99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>100</v>
+      </c>
+      <c r="K99">
+        <v>100</v>
+      </c>
+      <c r="L99" t="s">
+        <v>10</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>100</v>
+      </c>
+      <c r="P99">
+        <v>100</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>10</v>
+      </c>
+      <c r="R99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="J100" t="s">
-        <v>11</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100" t="s">
-        <v>11</v>
-      </c>
-      <c r="N100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>100</v>
+      </c>
+      <c r="K100">
+        <v>100</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>100</v>
+      </c>
+      <c r="P100">
+        <v>100</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>10</v>
+      </c>
+      <c r="R100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101" t="s">
-        <v>11</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101" t="s">
-        <v>11</v>
-      </c>
-      <c r="N101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>100</v>
+      </c>
+      <c r="K101">
+        <v>100</v>
+      </c>
+      <c r="L101" t="s">
+        <v>10</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>100</v>
+      </c>
+      <c r="P101">
+        <v>100</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I102">
         <v>55</v>
       </c>
-      <c r="J102" t="s">
-        <v>150</v>
-      </c>
-      <c r="L102">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>147</v>
+      </c>
+      <c r="N102">
         <v>55</v>
       </c>
-      <c r="M102" t="s">
-        <v>150</v>
-      </c>
-      <c r="N102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G104" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
-      <c r="J104" t="s">
-        <v>11</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104" t="s">
-        <v>11</v>
-      </c>
-      <c r="N104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>100</v>
+      </c>
+      <c r="K104">
+        <v>100</v>
+      </c>
+      <c r="L104" t="s">
+        <v>10</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>100</v>
+      </c>
+      <c r="P104">
+        <v>100</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>10</v>
+      </c>
+      <c r="R104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G105" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
-      <c r="J105" t="s">
-        <v>11</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105" t="s">
-        <v>11</v>
-      </c>
-      <c r="N105" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>100</v>
+      </c>
+      <c r="K105">
+        <v>100</v>
+      </c>
+      <c r="L105" t="s">
+        <v>10</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>100</v>
+      </c>
+      <c r="P105">
+        <v>100</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G106" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
-      <c r="J106" t="s">
-        <v>11</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106" t="s">
-        <v>11</v>
-      </c>
-      <c r="N106" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>100</v>
+      </c>
+      <c r="K106">
+        <v>100</v>
+      </c>
+      <c r="L106" t="s">
+        <v>10</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>100</v>
+      </c>
+      <c r="P106">
+        <v>100</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>10</v>
+      </c>
+      <c r="R106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G107" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
-      <c r="J107" t="s">
-        <v>11</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107" t="s">
-        <v>11</v>
-      </c>
-      <c r="N107" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>100</v>
+      </c>
+      <c r="K107">
+        <v>100</v>
+      </c>
+      <c r="L107" t="s">
+        <v>10</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>100</v>
+      </c>
+      <c r="P107">
+        <v>100</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>10</v>
+      </c>
+      <c r="R107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G108" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
-      <c r="J108" t="s">
-        <v>11</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108" t="s">
-        <v>11</v>
-      </c>
-      <c r="N108" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>100</v>
+      </c>
+      <c r="K108">
+        <v>100</v>
+      </c>
+      <c r="L108" t="s">
+        <v>10</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>100</v>
+      </c>
+      <c r="P108">
+        <v>100</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>10</v>
+      </c>
+      <c r="R108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G109" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
-      <c r="J109" t="s">
-        <v>11</v>
-      </c>
-      <c r="L109">
-        <v>6</v>
-      </c>
-      <c r="M109" t="s">
-        <v>19</v>
-      </c>
-      <c r="N109" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>100</v>
+      </c>
+      <c r="K109">
+        <v>100</v>
+      </c>
+      <c r="L109" t="s">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>6</v>
+      </c>
+      <c r="O109">
+        <v>45.45</v>
+      </c>
+      <c r="P109">
+        <v>45.45</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>18</v>
+      </c>
+      <c r="R109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G110" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110">
+        <v>100</v>
+      </c>
+      <c r="K110">
+        <v>100</v>
+      </c>
+      <c r="L110" t="s">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>93.33</v>
+      </c>
+      <c r="P110">
+        <v>93.33</v>
+      </c>
+      <c r="Q110" t="s">
         <v>11</v>
       </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110" t="s">
-        <v>12</v>
-      </c>
-      <c r="N110" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
-      <c r="J111" t="s">
-        <v>11</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111" t="s">
-        <v>11</v>
-      </c>
-      <c r="N111" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>100</v>
+      </c>
+      <c r="K111">
+        <v>100</v>
+      </c>
+      <c r="L111" t="s">
+        <v>10</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>100</v>
+      </c>
+      <c r="P111">
+        <v>100</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>10</v>
+      </c>
+      <c r="R111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F112" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G112" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
-      <c r="J112" t="s">
-        <v>11</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112" t="s">
-        <v>11</v>
-      </c>
-      <c r="N112" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>100</v>
+      </c>
+      <c r="K112">
+        <v>100</v>
+      </c>
+      <c r="L112" t="s">
+        <v>10</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>100</v>
+      </c>
+      <c r="P112">
+        <v>100</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>10</v>
+      </c>
+      <c r="R112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G113" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
-      <c r="J113" t="s">
-        <v>11</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
-        <v>11</v>
-      </c>
-      <c r="N113" t="s">
-        <v>159</v>
+      <c r="J113">
+        <v>100</v>
+      </c>
+      <c r="K113">
+        <v>100</v>
+      </c>
+      <c r="L113" t="s">
+        <v>10</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>100</v>
+      </c>
+      <c r="P113">
+        <v>100</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <f>SUM(J5:J113)</f>
+        <v>9408.7000000000007</v>
+      </c>
+      <c r="K115">
+        <f>SUM(K5:K113)</f>
+        <v>9407.1</v>
+      </c>
+      <c r="O115">
+        <f>SUM(O5:O113)</f>
+        <v>8721.8700000000008</v>
+      </c>
+      <c r="P115">
+        <f>SUM(P5:P113)</f>
+        <v>8658.74</v>
       </c>
     </row>
   </sheetData>

--- a/testes.xlsx
+++ b/testes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\AndroidStudioProjects\TTS-OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="209">
   <si>
     <t>AMBIENTE</t>
   </si>
@@ -618,6 +618,39 @@
   </si>
   <si>
     <t>In Lhepmmcm nu m u m m hes! Lhvnguf nh n m min, -mt cncm n mmm; whole and mum m shanerand dealmy n n not so good</t>
+  </si>
+  <si>
+    <t>wsmw</t>
+  </si>
+  <si>
+    <t>Mmemum fawccn</t>
+  </si>
+  <si>
+    <t>Millenium falcon</t>
+  </si>
+  <si>
+    <t>BATMAN</t>
+  </si>
+  <si>
+    <t>The Joker</t>
+  </si>
+  <si>
+    <t>Gothan City</t>
+  </si>
+  <si>
+    <t>Gothan Citn</t>
+  </si>
+  <si>
+    <t>The Penguin</t>
+  </si>
+  <si>
+    <t>The Tenguin</t>
+  </si>
+  <si>
+    <t>Ji</t>
+  </si>
+  <si>
+    <t>Milleniuh 15can</t>
   </si>
 </sst>
 </file>
@@ -863,6 +896,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -896,8 +931,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,30 +1236,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1259,7 +1292,7 @@
       <c r="K3" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="27" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1282,7 +1315,7 @@
       <c r="K4" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -5110,7 +5143,7 @@
       <c r="K120" s="1">
         <v>-142.85</v>
       </c>
-      <c r="L120" s="33" t="s">
+      <c r="L120" s="22" t="s">
         <v>184</v>
       </c>
       <c r="M120" t="s">
@@ -5493,7 +5526,7 @@
       <c r="L130" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="M130" s="34" t="s">
+      <c r="M130" s="23" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5531,7 +5564,7 @@
       <c r="L131" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="M131" s="34" t="s">
+      <c r="M131" s="23" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5569,7 +5602,7 @@
       <c r="L132" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="M132" s="34" t="s">
+      <c r="M132" s="23" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5607,8 +5640,305 @@
       <c r="L133" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="M133" s="34" t="s">
+      <c r="M133" s="23" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" s="1">
+        <v>25</v>
+      </c>
+      <c r="H135" s="1">
+        <v>-50</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" s="1">
+        <v>100</v>
+      </c>
+      <c r="H136" s="1">
+        <v>100</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J136" s="1">
+        <v>100</v>
+      </c>
+      <c r="K136" s="1">
+        <v>100</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>-11.11</v>
+      </c>
+      <c r="K138" s="1">
+        <v>-400</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G139" s="1">
+        <v>66.66</v>
+      </c>
+      <c r="H139" s="1">
+        <v>-150</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J139" s="1">
+        <v>66.66</v>
+      </c>
+      <c r="K139" s="1">
+        <v>-250</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G141" s="1">
+        <v>100</v>
+      </c>
+      <c r="H141" s="1">
+        <v>100</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J141" s="1">
+        <v>100</v>
+      </c>
+      <c r="K141" s="1">
+        <v>100</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>100</v>
+      </c>
+      <c r="K142" s="1">
+        <v>100</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <v>2</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G143" s="1">
+        <v>90</v>
+      </c>
+      <c r="H143" s="1">
+        <v>90</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J143" s="1">
+        <v>100</v>
+      </c>
+      <c r="K143" s="1">
+        <v>100</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G144" s="1">
+        <v>90</v>
+      </c>
+      <c r="H144" s="1">
+        <v>90</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
